--- a/hardware/BOM/MUR_BOM.xlsx
+++ b/hardware/BOM/MUR_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/smayberry8_gatech_edu/Documents/Georgia Tech/Projects/MUR/hardware/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="580" documentId="11_F25DC773A252ABDACC104889311B6A025BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BED6DDC-E244-49DF-9F07-00A5802C5275}"/>
+  <xr:revisionPtr revIDLastSave="586" documentId="11_F25DC773A252ABDACC104889311B6A025BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1400DC7-C0F7-4B2C-8E67-1C2E37530E74}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="714">
   <si>
     <t>Designator</t>
   </si>
@@ -2104,15 +2104,6 @@
     <t>Sum Total</t>
   </si>
   <si>
-    <t>Compute PCB - Components, Assembly, &amp; Manufacture</t>
-  </si>
-  <si>
-    <t>Sensor PCB - Components, Assembly, &amp; Manufacture</t>
-  </si>
-  <si>
-    <t>ESC Breakout PCB - Components, Assembly, &amp; Manufacture</t>
-  </si>
-  <si>
     <t>https://jlc3dp.com/3d-printing-quote</t>
   </si>
   <si>
@@ -2185,12 +2176,6 @@
     <t>Other Thrusters (Thrust Option 1)</t>
   </si>
   <si>
-    <t>Hardware w/o Thrusters  (Print Option 2)</t>
-  </si>
-  <si>
-    <t>Hardware w/o Thrusters  (Print Option 1)</t>
-  </si>
-  <si>
     <t>Summed Cost (Commerical Printing)</t>
   </si>
   <si>
@@ -2201,6 +2186,24 @@
   </si>
   <si>
     <t>Parts with Options</t>
+  </si>
+  <si>
+    <t>Hardware w/o Thrusters  (Print Option 1)*</t>
+  </si>
+  <si>
+    <t>Hardware w/o Thrusters  (Print Option 2)*</t>
+  </si>
+  <si>
+    <t>Compute PCB - Components, Assembly, &amp; Manufacture*</t>
+  </si>
+  <si>
+    <t>Sensor PCB - Components, Assembly, &amp; Manufacture*</t>
+  </si>
+  <si>
+    <t>ESC Breakout PCB - Components, Assembly, &amp; Manufacture*</t>
+  </si>
+  <si>
+    <t>*items with separate BOMs for subcomponents</t>
   </si>
 </sst>
 </file>
@@ -2262,19 +2265,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -2292,6 +2291,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2557,16 +2560,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F3E523-A577-4905-AC1F-A12C9C92B1E2}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="25.42578125" customWidth="1"/>
@@ -2575,9 +2578,9 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="B1" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>677</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2587,140 +2590,140 @@
         <v>676</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>708</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="3">
         <f>Hardware!I2</f>
         <v>428.15</v>
       </c>
-      <c r="C2" s="9">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
         <f>B2*C2</f>
         <v>428.15</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>707</v>
-      </c>
-      <c r="B3" s="4">
+        <v>709</v>
+      </c>
+      <c r="B3" s="3">
         <f>Hardware!J2</f>
         <v>589.11999999999989</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <f>B3*C3</f>
         <v>589.11999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>706</v>
-      </c>
-      <c r="B4" s="4">
+        <v>703</v>
+      </c>
+      <c r="B4" s="3">
         <v>30</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <f>B4*C4</f>
         <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>705</v>
-      </c>
-      <c r="B5" s="4">
+        <v>702</v>
+      </c>
+      <c r="B5" s="3">
         <v>200</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <f>B5*C5</f>
         <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>680</v>
-      </c>
-      <c r="B6" s="4">
+        <v>710</v>
+      </c>
+      <c r="B6" s="3">
         <v>58.13</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <f t="shared" ref="D6:D10" si="0">B6*C6</f>
         <v>58.13</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>704</v>
+      <c r="H6" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>681</v>
-      </c>
-      <c r="B7" s="4">
+        <v>711</v>
+      </c>
+      <c r="B7" s="3">
         <v>35.29</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>35.29</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="G7" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="H7" s="7">
         <f>SUM(D:D)-D5-D3</f>
         <v>858.69</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="7">
         <f>SUM(D:D)-D4-D3</f>
         <v>1878.69</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>682</v>
-      </c>
-      <c r="B8" s="4">
+        <v>712</v>
+      </c>
+      <c r="B8" s="3">
         <v>17.12</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>17.12</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G8" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="H8" s="7">
         <f>SUM(D:D)-D5-D2</f>
         <v>1019.66</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="7">
         <f>SUM(D:D)-D4-D2</f>
         <v>2039.6599999999999</v>
       </c>
@@ -2729,13 +2732,13 @@
       <c r="A9" t="s">
         <v>674</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>30</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -2744,15 +2747,20 @@
       <c r="A10" t="s">
         <v>531</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>80</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -2772,11 +2780,11 @@
   <cols>
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="48.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="9" width="27.140625" style="4" customWidth="1"/>
+    <col min="8" max="9" width="27.140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2790,10 +2798,10 @@
       <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2802,14 +2810,14 @@
       <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>711</v>
+      <c r="H1" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>706</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2822,27 +2830,27 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>C2*D2</f>
         <v>24.599999999999998</v>
       </c>
       <c r="F2" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>4.5599999999999996</v>
       </c>
-      <c r="I2" s="4" cm="1">
+      <c r="I2" s="3" cm="1">
         <f t="array" ref="I2">SUMPRODUCT(IF(H2:H100&lt;&gt;"", H2:H100, E2:E100))</f>
         <v>428.15</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <f>SUM(E:E)</f>
         <v>589.11999999999989</v>
       </c>
@@ -2857,15 +2865,15 @@
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>27</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>C3*D3</f>
         <v>135</v>
       </c>
       <c r="F3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G3" t="s">
         <v>43</v>
@@ -2881,20 +2889,20 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>8.5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <f t="shared" ref="E4:E34" si="0">C4*D4</f>
         <v>8.5</v>
       </c>
       <c r="F4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>1.44</v>
       </c>
     </row>
@@ -2908,20 +2916,20 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="F5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>0.75</v>
       </c>
     </row>
@@ -2935,20 +2943,20 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>1.1299999999999999</v>
       </c>
       <c r="F6" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>0.19</v>
       </c>
     </row>
@@ -2962,20 +2970,20 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.97</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>0.97</v>
       </c>
       <c r="F7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G7" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>0.16</v>
       </c>
     </row>
@@ -2989,20 +2997,20 @@
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>13.62</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>27.24</v>
       </c>
       <c r="F8" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>2.31</v>
       </c>
     </row>
@@ -3016,18 +3024,18 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>2.11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>4.22</v>
       </c>
       <c r="F9" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G9" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3040,18 +3048,18 @@
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>2.06</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>4.12</v>
       </c>
       <c r="F10" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3064,18 +3072,18 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>2.3199999999999998</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>4.6399999999999997</v>
       </c>
       <c r="F11" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G11" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3088,18 +3096,18 @@
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>2.15</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
       <c r="F12" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G12" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3112,15 +3120,15 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>32.99</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>32.99</v>
       </c>
       <c r="F13" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G13" t="s">
         <v>52</v>
@@ -3136,20 +3144,20 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>11.31</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>11.31</v>
       </c>
       <c r="F14" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G14" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>1.92</v>
       </c>
     </row>
@@ -3163,20 +3171,20 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>3.92</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>3.92</v>
       </c>
       <c r="F15" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0.66</v>
       </c>
     </row>
@@ -3187,8 +3195,8 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>690</v>
+      <c r="D16" s="3" t="s">
+        <v>687</v>
       </c>
       <c r="G16" t="s">
         <v>43</v>
@@ -3204,20 +3212,20 @@
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>7.03</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>7.03</v>
       </c>
       <c r="F17" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G17" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>1.19</v>
       </c>
     </row>
@@ -3231,20 +3239,20 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>3.08</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>3.08</v>
       </c>
       <c r="F18" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>0.52</v>
       </c>
     </row>
@@ -3255,8 +3263,8 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>690</v>
+      <c r="D19" s="3" t="s">
+        <v>687</v>
       </c>
       <c r="G19" t="s">
         <v>43</v>
@@ -3272,15 +3280,15 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>4.51</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>4.51</v>
       </c>
       <c r="G20" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -3293,15 +3301,15 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>4.51</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>4.51</v>
       </c>
       <c r="G21" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3314,18 +3322,18 @@
       <c r="C22">
         <v>10</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>6</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G22" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -3338,15 +3346,15 @@
       <c r="C23">
         <v>10</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -3359,15 +3367,15 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -3380,18 +3388,18 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>16</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G25" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -3401,11 +3409,11 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="G26" t="s">
         <v>691</v>
-      </c>
-      <c r="G26" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3418,20 +3426,20 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>8.9600000000000009</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <f t="shared" si="0"/>
         <v>17.920000000000002</v>
       </c>
       <c r="F27" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G27" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>1.52</v>
       </c>
     </row>
@@ -3445,20 +3453,20 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>11.86</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <f t="shared" si="0"/>
         <v>47.44</v>
       </c>
       <c r="F28" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G28" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>2.0099999999999998</v>
       </c>
     </row>
@@ -3472,20 +3480,20 @@
       <c r="C29">
         <v>2</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>6.92</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <f t="shared" si="0"/>
         <v>13.84</v>
       </c>
       <c r="F29" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G29" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>1.17</v>
       </c>
     </row>
@@ -3499,20 +3507,20 @@
       <c r="C30">
         <v>8</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>0.32</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <f t="shared" si="0"/>
         <v>2.56</v>
       </c>
       <c r="F30" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G30" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>0.05</v>
       </c>
     </row>
@@ -3526,20 +3534,20 @@
       <c r="C31">
         <v>8</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>0.4</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
       <c r="F31" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G31" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -3553,20 +3561,20 @@
       <c r="C32">
         <v>8</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>0.3</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
       <c r="F32" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G32" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>0.05</v>
       </c>
     </row>
@@ -3580,14 +3588,14 @@
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>125</v>
       </c>
       <c r="G33" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3597,18 +3605,18 @@
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>9.99</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
       <c r="F34" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G34" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -3634,38 +3642,38 @@
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" t="s">
         <v>676</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" t="s">
         <v>678</v>
       </c>
     </row>
